--- a/GATEWAY/A1#111#PANTAREIINFORMATICASRLXX/PANTAREIINFORMATICASRL/GSILAB/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#PANTAREIINFORMATICASRLXX/PANTAREIINFORMATICASRL/GSILAB/1.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1invii\1Clienti\fse\Accreditamento\publish\A1#111#PANTAREIINFORMATICASRLXX\PANTAREIINFORMATICASRL\GSILAB\1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7924BDCB-2DAD-4F45-8531-EFF4BDC39A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFDB074-DF2F-4494-A991-A2EB274256B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15510" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1723,19 +1723,19 @@
     <t>subject_application_id:GSILAB</t>
   </si>
   <si>
-    <t>2025-11-27T16:32:07Z</t>
-  </si>
-  <si>
-    <t>1377d8590b0264f7054eb7e2308cef52</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.bf972988d9c45d96c63f86963f60a44aa05276f2ef5d1906ee79eb9b8a96f225.c7ff075df6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Mostra un messaggio di errore all'operatore riportando la risposta fornita dal gateway</t>
   </si>
   <si>
     <t>L'operazione viene eseguita manualmente dall'operatore</t>
+  </si>
+  <si>
+    <t>2025-12-02T10:30:16Z</t>
+  </si>
+  <si>
+    <t>b70ee047f679784d78e18917e7541659</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.bf972988d9c45d96c63f86963f60a44aa05276f2ef5d1906ee79eb9b8a96f225.8ff8d18a69^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3808,7 +3808,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L183" sqref="L183"/>
+      <selection pane="bottomRight" activeCell="I183" sqref="I183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4768,7 +4768,7 @@
         <v>64</v>
       </c>
       <c r="O27" s="38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P27" s="38" t="s">
         <v>64</v>
@@ -4780,7 +4780,7 @@
         <v>64</v>
       </c>
       <c r="S27" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="T27" s="38"/>
       <c r="U27" s="39" t="s">
@@ -10116,16 +10116,16 @@
         <v>363</v>
       </c>
       <c r="F170" s="37">
-        <v>45988</v>
+        <v>45993</v>
       </c>
       <c r="G170" s="37" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H170" s="37" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J170" s="38" t="s">
         <v>64</v>
@@ -17275,6 +17275,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17532,28 +17553,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17572,31 +17597,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
